--- a/Расписание УРОКОВ с 11.09.2023-ПРАВКА1.xlsx
+++ b/Расписание УРОКОВ с 11.09.2023-ПРАВКА1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Projects\TelegramBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A86C060-CD56-410E-B824-1301FC1EAF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B51ACD0-5790-4677-86B8-7B179E5E9A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120"/>
+    <workbookView xWindow="7830" yWindow="4950" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,20 +18,11 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="108">
   <si>
     <t>Председатель ПК</t>
   </si>
@@ -365,11 +356,14 @@
   <si>
     <t>Ангяз-2</t>
   </si>
+  <si>
+    <t>9А</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1844,15 +1838,30 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
@@ -1892,22 +1901,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2247,11 +2241,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BX67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D4" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="AJ43" sqref="AJ43"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -2300,12 +2294,12 @@
     <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="F1" s="287" t="s">
+      <c r="F1" s="269" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="287"/>
-      <c r="H1" s="287"/>
-      <c r="I1" s="287"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
+      <c r="I1" s="269"/>
       <c r="J1" s="3"/>
       <c r="K1" s="27"/>
       <c r="L1" s="1"/>
@@ -2356,11 +2350,11 @@
       <c r="AA2" s="7"/>
       <c r="AB2" s="4"/>
       <c r="AC2" s="7"/>
-      <c r="AD2" s="288">
+      <c r="AD2" s="270">
         <v>44803</v>
       </c>
-      <c r="AE2" s="289"/>
-      <c r="AF2" s="289"/>
+      <c r="AE2" s="271"/>
+      <c r="AF2" s="271"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
@@ -2383,94 +2377,94 @@
       <c r="X3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AB3" s="1"/>
-      <c r="AD3" s="289" t="s">
+      <c r="AD3" s="271" t="s">
         <v>68</v>
       </c>
-      <c r="AE3" s="289"/>
-      <c r="AF3" s="289"/>
-      <c r="AG3" s="289"/>
+      <c r="AE3" s="271"/>
+      <c r="AF3" s="271"/>
+      <c r="AG3" s="271"/>
     </row>
     <row r="4" spans="1:39" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="272" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="290"/>
-      <c r="E4" s="290"/>
-      <c r="F4" s="290"/>
-      <c r="G4" s="290"/>
-      <c r="H4" s="290"/>
-      <c r="I4" s="290"/>
-      <c r="J4" s="290"/>
-      <c r="K4" s="290"/>
-      <c r="L4" s="290"/>
-      <c r="M4" s="290"/>
-      <c r="N4" s="290"/>
-      <c r="O4" s="290"/>
-      <c r="P4" s="290"/>
-      <c r="Q4" s="290"/>
-      <c r="R4" s="290"/>
-      <c r="S4" s="290"/>
-      <c r="T4" s="290"/>
-      <c r="U4" s="290"/>
-      <c r="V4" s="290"/>
-      <c r="W4" s="290"/>
-      <c r="X4" s="290"/>
-      <c r="Y4" s="290"/>
-      <c r="Z4" s="290"/>
-      <c r="AA4" s="290"/>
-      <c r="AB4" s="290"/>
-      <c r="AC4" s="290"/>
-      <c r="AD4" s="290"/>
-      <c r="AE4" s="290"/>
+      <c r="D4" s="272"/>
+      <c r="E4" s="272"/>
+      <c r="F4" s="272"/>
+      <c r="G4" s="272"/>
+      <c r="H4" s="272"/>
+      <c r="I4" s="272"/>
+      <c r="J4" s="272"/>
+      <c r="K4" s="272"/>
+      <c r="L4" s="272"/>
+      <c r="M4" s="272"/>
+      <c r="N4" s="272"/>
+      <c r="O4" s="272"/>
+      <c r="P4" s="272"/>
+      <c r="Q4" s="272"/>
+      <c r="R4" s="272"/>
+      <c r="S4" s="272"/>
+      <c r="T4" s="272"/>
+      <c r="U4" s="272"/>
+      <c r="V4" s="272"/>
+      <c r="W4" s="272"/>
+      <c r="X4" s="272"/>
+      <c r="Y4" s="272"/>
+      <c r="Z4" s="272"/>
+      <c r="AA4" s="272"/>
+      <c r="AB4" s="272"/>
+      <c r="AC4" s="272"/>
+      <c r="AD4" s="272"/>
+      <c r="AE4" s="272"/>
     </row>
     <row r="5" spans="1:39" s="118" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="119"/>
       <c r="B5" s="120"/>
       <c r="C5" s="121"/>
-      <c r="D5" s="284" t="s">
+      <c r="D5" s="289" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="285"/>
-      <c r="F5" s="285"/>
-      <c r="G5" s="285"/>
-      <c r="H5" s="285"/>
-      <c r="I5" s="286"/>
-      <c r="J5" s="285" t="s">
+      <c r="E5" s="273"/>
+      <c r="F5" s="273"/>
+      <c r="G5" s="273"/>
+      <c r="H5" s="273"/>
+      <c r="I5" s="290"/>
+      <c r="J5" s="273" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="285"/>
-      <c r="L5" s="285"/>
-      <c r="M5" s="285"/>
-      <c r="N5" s="285"/>
-      <c r="O5" s="285"/>
+      <c r="K5" s="273"/>
+      <c r="L5" s="273"/>
+      <c r="M5" s="273"/>
+      <c r="N5" s="273"/>
+      <c r="O5" s="273"/>
       <c r="P5" s="122"/>
       <c r="Q5" s="123"/>
-      <c r="R5" s="284" t="s">
+      <c r="R5" s="289" t="s">
         <v>3</v>
       </c>
-      <c r="S5" s="285"/>
-      <c r="T5" s="285"/>
-      <c r="U5" s="285"/>
-      <c r="V5" s="285"/>
-      <c r="W5" s="285"/>
+      <c r="S5" s="273"/>
+      <c r="T5" s="273"/>
+      <c r="U5" s="273"/>
+      <c r="V5" s="273"/>
+      <c r="W5" s="273"/>
       <c r="X5" s="124"/>
       <c r="Y5" s="125"/>
       <c r="Z5" s="126"/>
-      <c r="AA5" s="270" t="s">
+      <c r="AA5" s="274" t="s">
         <v>70</v>
       </c>
-      <c r="AB5" s="270"/>
-      <c r="AC5" s="270"/>
-      <c r="AD5" s="270"/>
-      <c r="AE5" s="270"/>
-      <c r="AF5" s="270"/>
-      <c r="AG5" s="271"/>
-      <c r="AH5" s="269" t="s">
+      <c r="AB5" s="274"/>
+      <c r="AC5" s="274"/>
+      <c r="AD5" s="274"/>
+      <c r="AE5" s="274"/>
+      <c r="AF5" s="274"/>
+      <c r="AG5" s="275"/>
+      <c r="AH5" s="276" t="s">
         <v>99</v>
       </c>
-      <c r="AI5" s="270"/>
-      <c r="AJ5" s="270"/>
-      <c r="AK5" s="271"/>
+      <c r="AI5" s="274"/>
+      <c r="AJ5" s="274"/>
+      <c r="AK5" s="275"/>
       <c r="AL5" s="127"/>
       <c r="AM5" s="117"/>
     </row>
@@ -2521,7 +2515,7 @@
         <v>21</v>
       </c>
       <c r="R6" s="129" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="S6" s="136">
         <v>24</v>
@@ -2585,7 +2579,7 @@
     </row>
     <row r="7" spans="1:39" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="119"/>
-      <c r="B7" s="272" t="s">
+      <c r="B7" s="277" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="144">
@@ -2700,7 +2694,7 @@
     </row>
     <row r="8" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="119"/>
-      <c r="B8" s="273"/>
+      <c r="B8" s="278"/>
       <c r="C8" s="152">
         <v>2</v>
       </c>
@@ -2811,7 +2805,7 @@
     </row>
     <row r="9" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="119"/>
-      <c r="B9" s="273"/>
+      <c r="B9" s="278"/>
       <c r="C9" s="152">
         <v>3</v>
       </c>
@@ -2922,7 +2916,7 @@
     </row>
     <row r="10" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="119"/>
-      <c r="B10" s="273"/>
+      <c r="B10" s="278"/>
       <c r="C10" s="152">
         <v>4</v>
       </c>
@@ -3033,7 +3027,7 @@
     </row>
     <row r="11" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="119"/>
-      <c r="B11" s="273"/>
+      <c r="B11" s="278"/>
       <c r="C11" s="152">
         <v>5</v>
       </c>
@@ -3144,7 +3138,7 @@
     </row>
     <row r="12" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="119"/>
-      <c r="B12" s="273"/>
+      <c r="B12" s="278"/>
       <c r="C12" s="152">
         <v>6</v>
       </c>
@@ -3255,7 +3249,7 @@
     </row>
     <row r="13" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="119"/>
-      <c r="B13" s="273"/>
+      <c r="B13" s="278"/>
       <c r="C13" s="152">
         <v>7</v>
       </c>
@@ -3362,7 +3356,7 @@
     </row>
     <row r="14" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="119"/>
-      <c r="B14" s="275"/>
+      <c r="B14" s="280"/>
       <c r="C14" s="166">
         <v>8</v>
       </c>
@@ -3409,7 +3403,7 @@
     </row>
     <row r="15" spans="1:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="119"/>
-      <c r="B15" s="274"/>
+      <c r="B15" s="279"/>
       <c r="C15" s="173"/>
       <c r="D15" s="11"/>
       <c r="E15" s="12"/>
@@ -3450,7 +3444,7 @@
     </row>
     <row r="16" spans="1:39" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="119"/>
-      <c r="B16" s="272" t="s">
+      <c r="B16" s="277" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="144">
@@ -3551,7 +3545,7 @@
     </row>
     <row r="17" spans="1:76" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="119"/>
-      <c r="B17" s="273"/>
+      <c r="B17" s="278"/>
       <c r="C17" s="152">
         <v>2</v>
       </c>
@@ -3662,7 +3656,7 @@
     </row>
     <row r="18" spans="1:76" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="119"/>
-      <c r="B18" s="273"/>
+      <c r="B18" s="278"/>
       <c r="C18" s="152">
         <v>3</v>
       </c>
@@ -3773,7 +3767,7 @@
     </row>
     <row r="19" spans="1:76" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="119"/>
-      <c r="B19" s="273"/>
+      <c r="B19" s="278"/>
       <c r="C19" s="152">
         <v>4</v>
       </c>
@@ -3884,7 +3878,7 @@
     </row>
     <row r="20" spans="1:76" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="119"/>
-      <c r="B20" s="273"/>
+      <c r="B20" s="278"/>
       <c r="C20" s="152">
         <v>5</v>
       </c>
@@ -3995,7 +3989,7 @@
     </row>
     <row r="21" spans="1:76" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="119"/>
-      <c r="B21" s="273"/>
+      <c r="B21" s="278"/>
       <c r="C21" s="152">
         <v>6</v>
       </c>
@@ -4104,7 +4098,7 @@
     </row>
     <row r="22" spans="1:76" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="119"/>
-      <c r="B22" s="273"/>
+      <c r="B22" s="278"/>
       <c r="C22" s="193">
         <v>7</v>
       </c>
@@ -4173,7 +4167,7 @@
     </row>
     <row r="23" spans="1:76" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="119"/>
-      <c r="B23" s="275"/>
+      <c r="B23" s="280"/>
       <c r="C23" s="193">
         <v>8</v>
       </c>
@@ -4230,7 +4224,7 @@
     </row>
     <row r="24" spans="1:76" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="119"/>
-      <c r="B24" s="274"/>
+      <c r="B24" s="279"/>
       <c r="C24" s="198">
         <v>9</v>
       </c>
@@ -4273,7 +4267,7 @@
     </row>
     <row r="25" spans="1:76" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="119"/>
-      <c r="B25" s="276" t="s">
+      <c r="B25" s="281" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="144">
@@ -4378,7 +4372,7 @@
     </row>
     <row r="26" spans="1:76" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="119"/>
-      <c r="B26" s="277"/>
+      <c r="B26" s="282"/>
       <c r="C26" s="152">
         <v>2</v>
       </c>
@@ -4489,7 +4483,7 @@
     </row>
     <row r="27" spans="1:76" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="119"/>
-      <c r="B27" s="277"/>
+      <c r="B27" s="282"/>
       <c r="C27" s="152">
         <v>3</v>
       </c>
@@ -4596,7 +4590,7 @@
     </row>
     <row r="28" spans="1:76" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="119"/>
-      <c r="B28" s="277"/>
+      <c r="B28" s="282"/>
       <c r="C28" s="152">
         <v>4</v>
       </c>
@@ -4701,7 +4695,7 @@
     </row>
     <row r="29" spans="1:76" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="119"/>
-      <c r="B29" s="277"/>
+      <c r="B29" s="282"/>
       <c r="C29" s="152">
         <v>5</v>
       </c>
@@ -4804,7 +4798,7 @@
     </row>
     <row r="30" spans="1:76" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="119"/>
-      <c r="B30" s="277"/>
+      <c r="B30" s="282"/>
       <c r="C30" s="128">
         <v>6</v>
       </c>
@@ -4940,7 +4934,7 @@
     </row>
     <row r="31" spans="1:76" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="119"/>
-      <c r="B31" s="277"/>
+      <c r="B31" s="282"/>
       <c r="C31" s="209">
         <v>7</v>
       </c>
@@ -5068,7 +5062,7 @@
     </row>
     <row r="32" spans="1:76" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="119"/>
-      <c r="B32" s="278"/>
+      <c r="B32" s="283"/>
       <c r="C32" s="210">
         <v>8</v>
       </c>
@@ -5154,7 +5148,7 @@
     </row>
     <row r="33" spans="1:76" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="119"/>
-      <c r="B33" s="279"/>
+      <c r="B33" s="284"/>
       <c r="C33" s="173"/>
       <c r="D33" s="11"/>
       <c r="E33" s="12"/>
@@ -5565,7 +5559,7 @@
     </row>
     <row r="37" spans="1:76" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="119"/>
-      <c r="B37" s="280" t="s">
+      <c r="B37" s="285" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="222">
@@ -5670,7 +5664,7 @@
     </row>
     <row r="38" spans="1:76" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="119"/>
-      <c r="B38" s="281"/>
+      <c r="B38" s="286"/>
       <c r="C38" s="229">
         <v>2</v>
       </c>
@@ -5783,7 +5777,7 @@
     </row>
     <row r="39" spans="1:76" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="119"/>
-      <c r="B39" s="281"/>
+      <c r="B39" s="286"/>
       <c r="C39" s="229">
         <v>3</v>
       </c>
@@ -5896,7 +5890,7 @@
     </row>
     <row r="40" spans="1:76" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="119"/>
-      <c r="B40" s="281"/>
+      <c r="B40" s="286"/>
       <c r="C40" s="229">
         <v>4</v>
       </c>
@@ -6009,7 +6003,7 @@
     </row>
     <row r="41" spans="1:76" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="119"/>
-      <c r="B41" s="281"/>
+      <c r="B41" s="286"/>
       <c r="C41" s="229">
         <v>5</v>
       </c>
@@ -6120,7 +6114,7 @@
     </row>
     <row r="42" spans="1:76" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="119"/>
-      <c r="B42" s="281"/>
+      <c r="B42" s="286"/>
       <c r="C42" s="229">
         <v>6</v>
       </c>
@@ -6231,7 +6225,7 @@
     </row>
     <row r="43" spans="1:76" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="119"/>
-      <c r="B43" s="281"/>
+      <c r="B43" s="286"/>
       <c r="C43" s="229">
         <v>7</v>
       </c>
@@ -6328,7 +6322,7 @@
     </row>
     <row r="44" spans="1:76" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="119"/>
-      <c r="B44" s="282"/>
+      <c r="B44" s="287"/>
       <c r="C44" s="242">
         <v>8</v>
       </c>
@@ -6373,7 +6367,7 @@
     </row>
     <row r="45" spans="1:76" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="119"/>
-      <c r="B45" s="283"/>
+      <c r="B45" s="288"/>
       <c r="C45" s="244"/>
       <c r="D45" s="11"/>
       <c r="E45" s="12"/>
@@ -6414,7 +6408,7 @@
     </row>
     <row r="46" spans="1:76" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="119"/>
-      <c r="B46" s="272" t="s">
+      <c r="B46" s="277" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="222">
@@ -6511,7 +6505,7 @@
     </row>
     <row r="47" spans="1:76" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="119"/>
-      <c r="B47" s="273"/>
+      <c r="B47" s="278"/>
       <c r="C47" s="229">
         <v>2</v>
       </c>
@@ -6622,7 +6616,7 @@
     </row>
     <row r="48" spans="1:76" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="119"/>
-      <c r="B48" s="273"/>
+      <c r="B48" s="278"/>
       <c r="C48" s="229">
         <v>3</v>
       </c>
@@ -6733,7 +6727,7 @@
     </row>
     <row r="49" spans="1:39" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="119"/>
-      <c r="B49" s="273"/>
+      <c r="B49" s="278"/>
       <c r="C49" s="229">
         <v>4</v>
       </c>
@@ -6844,7 +6838,7 @@
     </row>
     <row r="50" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="119"/>
-      <c r="B50" s="273"/>
+      <c r="B50" s="278"/>
       <c r="C50" s="229">
         <v>5</v>
       </c>
@@ -6955,7 +6949,7 @@
     </row>
     <row r="51" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="119"/>
-      <c r="B51" s="273"/>
+      <c r="B51" s="278"/>
       <c r="C51" s="229">
         <v>6</v>
       </c>
@@ -7058,7 +7052,7 @@
     </row>
     <row r="52" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="119"/>
-      <c r="B52" s="273"/>
+      <c r="B52" s="278"/>
       <c r="C52" s="229">
         <v>7</v>
       </c>
@@ -7125,7 +7119,7 @@
     </row>
     <row r="53" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="119"/>
-      <c r="B53" s="275"/>
+      <c r="B53" s="280"/>
       <c r="C53" s="242">
         <v>8</v>
       </c>
@@ -7180,7 +7174,7 @@
     </row>
     <row r="54" spans="1:39" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="119"/>
-      <c r="B54" s="274"/>
+      <c r="B54" s="279"/>
       <c r="C54" s="244">
         <v>8</v>
       </c>
@@ -7227,7 +7221,7 @@
     </row>
     <row r="55" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="119"/>
-      <c r="B55" s="272" t="s">
+      <c r="B55" s="277" t="s">
         <v>20</v>
       </c>
       <c r="C55" s="144">
@@ -7324,7 +7318,7 @@
     </row>
     <row r="56" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="119"/>
-      <c r="B56" s="273"/>
+      <c r="B56" s="278"/>
       <c r="C56" s="166">
         <v>2</v>
       </c>
@@ -7437,7 +7431,7 @@
     </row>
     <row r="57" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="119"/>
-      <c r="B57" s="273"/>
+      <c r="B57" s="278"/>
       <c r="C57" s="152">
         <v>3</v>
       </c>
@@ -7548,7 +7542,7 @@
     </row>
     <row r="58" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="119"/>
-      <c r="B58" s="273"/>
+      <c r="B58" s="278"/>
       <c r="C58" s="152">
         <v>4</v>
       </c>
@@ -7659,7 +7653,7 @@
     </row>
     <row r="59" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="119"/>
-      <c r="B59" s="273"/>
+      <c r="B59" s="278"/>
       <c r="C59" s="166">
         <v>5</v>
       </c>
@@ -7770,7 +7764,7 @@
     </row>
     <row r="60" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="119"/>
-      <c r="B60" s="273"/>
+      <c r="B60" s="278"/>
       <c r="C60" s="152">
         <v>6</v>
       </c>
@@ -7869,7 +7863,7 @@
     </row>
     <row r="61" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="119"/>
-      <c r="B61" s="273"/>
+      <c r="B61" s="278"/>
       <c r="C61" s="152">
         <v>7</v>
       </c>
@@ -7932,7 +7926,7 @@
     </row>
     <row r="62" spans="1:39" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="119"/>
-      <c r="B62" s="274"/>
+      <c r="B62" s="279"/>
       <c r="C62" s="198">
         <v>8</v>
       </c>
@@ -8173,12 +8167,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="C4:AE4"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="AA5:AG5"/>
     <mergeCell ref="AH5:AK5"/>
     <mergeCell ref="B55:B62"/>
     <mergeCell ref="B7:B15"/>
@@ -8188,6 +8176,12 @@
     <mergeCell ref="B37:B45"/>
     <mergeCell ref="R5:W5"/>
     <mergeCell ref="D5:I5"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="C4:AE4"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="AA5:AG5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8200,7 +8194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8214,7 +8208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
